--- a/1.Administrativo/2.Planilhas/Planilha de riscos.xlsx
+++ b/1.Administrativo/2.Planilhas/Planilha de riscos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milene Oliveira\Documents\sprint\eva\1.Administrativo\2.Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D128C5A2-011D-43F7-9DE0-B1A55B5C49C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F6508-3AE5-47E5-B37F-A545E55BE48A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{79FB1677-D4FF-483F-ABE3-0C058EEEBE18}"/>
   </bookViews>
@@ -143,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -277,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,11 +600,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A5001A-CD69-4C04-973E-288FDBFA14E1}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -630,7 +640,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="AA1" s="19"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
